--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/10/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/10/seed2/result_data_KNN.xlsx
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.084</v>
+        <v>-21.932</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.47</v>
+        <v>16.442</v>
       </c>
     </row>
     <row r="4">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.68</v>
+        <v>-19.936</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.566</v>
+        <v>-19.945</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -848,12 +848,12 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.818</v>
+        <v>16.539</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.932</v>
+        <v>-21.78900000000001</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.996</v>
+        <v>-13.069</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.272</v>
+        <v>-13.163</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.514</v>
+        <v>-12.858</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-10.792</v>
+        <v>-11.432</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.154</v>
+        <v>-11.133</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.354</v>
+        <v>-11.601</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.484</v>
+        <v>-13.175</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-13.386</v>
+        <v>-13.537</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1397,19 +1397,19 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.202</v>
+        <v>-22.07999999999999</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.946</v>
+        <v>-13.813</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.668</v>
+        <v>16.469</v>
       </c>
     </row>
     <row r="58">
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.314</v>
+        <v>-22.407</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1477,7 +1477,7 @@
         <v>-7.97</v>
       </c>
       <c r="E61" t="n">
-        <v>16.49</v>
+        <v>16.625</v>
       </c>
     </row>
     <row r="62">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.718</v>
+        <v>-21.703</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.698</v>
+        <v>17.687</v>
       </c>
     </row>
     <row r="71">
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.964</v>
+        <v>-12.515</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.178</v>
+        <v>-21.005</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.886</v>
+        <v>-21.938</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.836</v>
+        <v>16.554</v>
       </c>
     </row>
     <row r="87">
@@ -1947,7 +1947,7 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-11.814</v>
+        <v>-11.264</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-13.544</v>
+        <v>-12.482</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.858</v>
+        <v>-21.459</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>15.744</v>
+        <v>16.114</v>
       </c>
     </row>
     <row r="99">
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>17.226</v>
+        <v>16.809</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.434</v>
+        <v>16.513</v>
       </c>
     </row>
   </sheetData>
